--- a/examples/test.xlsx
+++ b/examples/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23820" windowHeight="11850" activeTab="1"/>
+    <workbookView windowWidth="23550" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ages" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>0x1</t>
   </si>
   <si>
@@ -51,10 +54,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -67,6 +71,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -80,6 +99,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -89,7 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,53 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -165,46 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,23 +420,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,15 +441,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -468,15 +457,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,158 +490,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +740,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FCFCFC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -843,7 +850,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -867,9 +874,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -893,7 +900,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -946,7 +953,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -971,7 +978,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1024,36 +1031,48 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="9.375"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44088</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44088</v>
       </c>
     </row>
   </sheetData>
